--- a/surveydatav2.xlsx
+++ b/surveydatav2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jglts\Repos\SB-SWB Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48849F58-6267-4A1E-92ED-D6849687A9A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBFF608B-AE74-44C7-B371-761D6C7DE2BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28590" yWindow="-5750" windowWidth="21640" windowHeight="11320" tabRatio="212" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20490" yWindow="-5780" windowWidth="21640" windowHeight="11320" tabRatio="212" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SB_SWB_2021_2022" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1997" uniqueCount="725">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1996" uniqueCount="725">
   <si>
     <t>CASE</t>
   </si>
@@ -2699,8 +2699,8 @@
   <dimension ref="A1:IL150"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H99" sqref="H99 H88"/>
+      <pane ySplit="2" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H144" sqref="H144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -68810,8 +68810,8 @@
       <c r="G99" s="1">
         <v>2</v>
       </c>
-      <c r="H99" s="4" t="s">
-        <v>668</v>
+      <c r="H99" s="4">
+        <v>49</v>
       </c>
       <c r="I99" s="1">
         <v>2</v>

--- a/surveydatav2.xlsx
+++ b/surveydatav2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jglts\Repos\SB-SWB Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9424CE7C-DA4B-4FB6-843B-5FE60FAB1AE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A2D2DF6-41B0-4695-A6C0-3217C6042365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="15975" yWindow="2295" windowWidth="11895" windowHeight="11325" tabRatio="212" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="7740" windowWidth="14610" windowHeight="7845" tabRatio="212" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SB_SWB_2021_2022" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2024" uniqueCount="731">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2024" uniqueCount="730">
   <si>
     <t>CASE</t>
   </si>
@@ -2197,9 +2197,6 @@
     <t>TA</t>
   </si>
   <si>
-    <t>061</t>
-  </si>
-  <si>
     <t>Dental Assisting at Presthodontist</t>
   </si>
   <si>
@@ -2222,7 +2219,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2249,8 +2246,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2293,6 +2297,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2303,15 +2312,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2370,13 +2380,19 @@
     <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="3" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="1" fontId="4" fillId="8" borderId="0" xfId="6" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="0" xfId="6" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" xfId="6" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="4" fillId="8" borderId="0" xfId="6" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="6"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30"/>
     <cellStyle name="20% - Accent2" xfId="2" builtinId="34"/>
     <cellStyle name="20% - Accent3" xfId="3" builtinId="38"/>
     <cellStyle name="20% - Accent5" xfId="4" builtinId="46"/>
     <cellStyle name="20% - Accent6" xfId="5" builtinId="50"/>
+    <cellStyle name="Bad" xfId="6" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2712,8 +2728,8 @@
   <dimension ref="A1:IL153"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+      <pane ySplit="2" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H114" sqref="H114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4234,703 +4250,703 @@
         <v>490</v>
       </c>
     </row>
-    <row r="3" spans="1:246" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2" t="s">
+    <row r="3" spans="1:246" s="60" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="56">
+        <v>3</v>
+      </c>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57" t="s">
         <v>491</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="57" t="s">
         <v>492</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="58">
         <v>44473.718078703998</v>
       </c>
-      <c r="G3" s="1">
-        <v>1</v>
-      </c>
-      <c r="H3" s="2" t="s">
+      <c r="G3" s="56">
+        <v>1</v>
+      </c>
+      <c r="H3" s="57" t="s">
         <v>493</v>
       </c>
-      <c r="I3" s="1">
-        <v>5</v>
-      </c>
-      <c r="J3" s="1">
-        <v>2</v>
-      </c>
-      <c r="K3" s="1">
-        <v>1</v>
-      </c>
-      <c r="L3" s="2" t="s">
+      <c r="I3" s="56">
+        <v>5</v>
+      </c>
+      <c r="J3" s="56">
+        <v>2</v>
+      </c>
+      <c r="K3" s="56">
+        <v>1</v>
+      </c>
+      <c r="L3" s="57" t="s">
         <v>494</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" s="57" t="s">
         <v>495</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="N3" s="57" t="s">
         <v>496</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="O3" s="57" t="s">
         <v>497</v>
       </c>
-      <c r="P3" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>1</v>
-      </c>
-      <c r="R3" s="1">
-        <v>2</v>
-      </c>
-      <c r="S3" s="1">
-        <v>2</v>
-      </c>
-      <c r="T3" s="1">
-        <v>4</v>
-      </c>
-      <c r="U3" s="1">
-        <v>3</v>
-      </c>
-      <c r="V3" s="1">
-        <v>2</v>
-      </c>
-      <c r="W3" s="1">
-        <v>4</v>
-      </c>
-      <c r="X3" s="1">
-        <v>2</v>
-      </c>
-      <c r="Y3" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z3" s="1">
-        <v>2</v>
-      </c>
-      <c r="AA3" s="2" t="s">
+      <c r="P3" s="56">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="56">
+        <v>1</v>
+      </c>
+      <c r="R3" s="56">
+        <v>2</v>
+      </c>
+      <c r="S3" s="56">
+        <v>2</v>
+      </c>
+      <c r="T3" s="56">
+        <v>4</v>
+      </c>
+      <c r="U3" s="56">
+        <v>3</v>
+      </c>
+      <c r="V3" s="56">
+        <v>2</v>
+      </c>
+      <c r="W3" s="56">
+        <v>4</v>
+      </c>
+      <c r="X3" s="56">
+        <v>2</v>
+      </c>
+      <c r="Y3" s="56">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="56">
+        <v>2</v>
+      </c>
+      <c r="AA3" s="57" t="s">
         <v>498</v>
       </c>
-      <c r="AB3" s="1">
-        <v>2</v>
-      </c>
-      <c r="AC3" s="2" t="s">
+      <c r="AB3" s="56">
+        <v>2</v>
+      </c>
+      <c r="AC3" s="57" t="s">
         <v>499</v>
       </c>
-      <c r="AD3" s="1">
-        <v>1</v>
-      </c>
-      <c r="AE3" s="2"/>
-      <c r="AF3" s="1">
-        <v>2</v>
-      </c>
-      <c r="AG3" s="1">
-        <v>2</v>
-      </c>
-      <c r="AH3" s="1">
-        <v>1</v>
-      </c>
-      <c r="AI3" s="1">
-        <v>2</v>
-      </c>
-      <c r="AJ3" s="1">
+      <c r="AD3" s="56">
+        <v>1</v>
+      </c>
+      <c r="AE3" s="57"/>
+      <c r="AF3" s="56">
+        <v>2</v>
+      </c>
+      <c r="AG3" s="56">
+        <v>2</v>
+      </c>
+      <c r="AH3" s="56">
+        <v>1</v>
+      </c>
+      <c r="AI3" s="56">
+        <v>2</v>
+      </c>
+      <c r="AJ3" s="56">
         <v>0</v>
       </c>
-      <c r="AK3" s="1">
-        <v>1</v>
-      </c>
-      <c r="AL3" s="2"/>
-      <c r="AM3" s="1">
+      <c r="AK3" s="56">
+        <v>1</v>
+      </c>
+      <c r="AL3" s="57"/>
+      <c r="AM3" s="56">
         <v>6</v>
       </c>
-      <c r="AN3" s="1">
-        <v>1</v>
-      </c>
-      <c r="AO3" s="1">
-        <v>1</v>
-      </c>
-      <c r="AP3" s="1">
-        <v>1</v>
-      </c>
-      <c r="AQ3" s="1">
-        <v>2</v>
-      </c>
-      <c r="AR3" s="1">
-        <v>1</v>
-      </c>
-      <c r="AS3" s="1">
-        <v>1</v>
-      </c>
-      <c r="AT3" s="1"/>
-      <c r="AU3" s="1">
-        <v>1</v>
-      </c>
-      <c r="AV3" s="2"/>
-      <c r="AW3" s="1">
+      <c r="AN3" s="56">
+        <v>1</v>
+      </c>
+      <c r="AO3" s="56">
+        <v>1</v>
+      </c>
+      <c r="AP3" s="56">
+        <v>1</v>
+      </c>
+      <c r="AQ3" s="56">
+        <v>2</v>
+      </c>
+      <c r="AR3" s="56">
+        <v>1</v>
+      </c>
+      <c r="AS3" s="56">
+        <v>1</v>
+      </c>
+      <c r="AT3" s="56"/>
+      <c r="AU3" s="56">
+        <v>1</v>
+      </c>
+      <c r="AV3" s="57"/>
+      <c r="AW3" s="56">
         <v>6</v>
       </c>
-      <c r="AX3" s="1">
-        <v>1</v>
-      </c>
-      <c r="AY3" s="1">
-        <v>1</v>
-      </c>
-      <c r="AZ3" s="1">
+      <c r="AX3" s="56">
+        <v>1</v>
+      </c>
+      <c r="AY3" s="56">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="56">
         <v>0</v>
       </c>
-      <c r="BA3" s="1">
-        <v>1</v>
-      </c>
-      <c r="BB3" s="1">
-        <v>1</v>
-      </c>
-      <c r="BC3" s="1">
-        <v>2</v>
-      </c>
-      <c r="BD3" s="2" t="s">
+      <c r="BA3" s="56">
+        <v>1</v>
+      </c>
+      <c r="BB3" s="56">
+        <v>1</v>
+      </c>
+      <c r="BC3" s="56">
+        <v>2</v>
+      </c>
+      <c r="BD3" s="57" t="s">
         <v>500</v>
       </c>
-      <c r="BE3" s="1">
+      <c r="BE3" s="56">
         <v>7</v>
       </c>
-      <c r="BF3" s="1">
+      <c r="BF3" s="56">
         <v>20</v>
       </c>
-      <c r="BG3" s="1">
+      <c r="BG3" s="56">
         <v>11</v>
       </c>
-      <c r="BH3" s="1">
+      <c r="BH3" s="56">
         <v>30</v>
       </c>
-      <c r="BI3" s="1">
-        <v>1</v>
-      </c>
-      <c r="BJ3" s="1">
-        <v>3</v>
-      </c>
-      <c r="BK3" s="1"/>
-      <c r="BL3" s="1">
-        <v>1</v>
-      </c>
-      <c r="BM3" s="2" t="s">
+      <c r="BI3" s="56">
+        <v>1</v>
+      </c>
+      <c r="BJ3" s="56">
+        <v>3</v>
+      </c>
+      <c r="BK3" s="56"/>
+      <c r="BL3" s="56">
+        <v>1</v>
+      </c>
+      <c r="BM3" s="57" t="s">
         <v>498</v>
       </c>
-      <c r="BN3" s="1">
-        <v>2</v>
-      </c>
-      <c r="BO3" s="1">
+      <c r="BN3" s="56">
+        <v>2</v>
+      </c>
+      <c r="BO3" s="56">
         <v>15</v>
       </c>
-      <c r="BP3" s="1">
-        <v>3</v>
-      </c>
-      <c r="BQ3" s="1">
-        <v>1</v>
-      </c>
-      <c r="BR3" s="1">
+      <c r="BP3" s="56">
+        <v>3</v>
+      </c>
+      <c r="BQ3" s="56">
+        <v>1</v>
+      </c>
+      <c r="BR3" s="56">
         <v>9</v>
       </c>
-      <c r="BS3" s="1">
+      <c r="BS3" s="56">
         <v>10</v>
       </c>
-      <c r="BT3" s="1">
-        <v>2</v>
-      </c>
-      <c r="BU3" s="1"/>
-      <c r="BV3" s="2" t="s">
+      <c r="BT3" s="56">
+        <v>2</v>
+      </c>
+      <c r="BU3" s="56"/>
+      <c r="BV3" s="57" t="s">
         <v>501</v>
       </c>
-      <c r="BW3" s="1"/>
-      <c r="BX3" s="1">
+      <c r="BW3" s="56"/>
+      <c r="BX3" s="56">
         <v>0</v>
       </c>
-      <c r="BY3" s="1">
-        <v>1</v>
-      </c>
-      <c r="BZ3" s="1">
+      <c r="BY3" s="56">
+        <v>1</v>
+      </c>
+      <c r="BZ3" s="56">
         <v>0</v>
       </c>
-      <c r="CA3" s="1">
+      <c r="CA3" s="56">
         <v>11</v>
       </c>
-      <c r="CB3" s="1">
-        <v>1</v>
-      </c>
-      <c r="CC3" s="1">
-        <v>5</v>
-      </c>
-      <c r="CD3" s="1">
+      <c r="CB3" s="56">
+        <v>1</v>
+      </c>
+      <c r="CC3" s="56">
+        <v>5</v>
+      </c>
+      <c r="CD3" s="56">
         <v>6</v>
       </c>
-      <c r="CE3" s="1">
+      <c r="CE3" s="56">
         <v>11</v>
       </c>
-      <c r="CF3" s="1">
+      <c r="CF3" s="56">
         <v>11</v>
       </c>
-      <c r="CG3" s="1">
-        <v>1</v>
-      </c>
-      <c r="CH3" s="1">
-        <v>1</v>
-      </c>
-      <c r="CI3" s="1">
-        <v>2</v>
-      </c>
-      <c r="CJ3" s="1">
-        <v>1</v>
-      </c>
-      <c r="CK3" s="1">
-        <v>3</v>
-      </c>
-      <c r="CL3" s="1">
-        <v>1</v>
-      </c>
-      <c r="CM3" s="1">
-        <v>1</v>
-      </c>
-      <c r="CN3" s="1">
-        <v>1</v>
-      </c>
-      <c r="CO3" s="1">
-        <v>1</v>
-      </c>
-      <c r="CP3" s="1">
-        <v>1</v>
-      </c>
-      <c r="CQ3" s="1">
-        <v>1</v>
-      </c>
-      <c r="CR3" s="1">
-        <v>1</v>
-      </c>
-      <c r="CS3" s="1">
-        <v>1</v>
-      </c>
-      <c r="CT3" s="1">
+      <c r="CG3" s="56">
+        <v>1</v>
+      </c>
+      <c r="CH3" s="56">
+        <v>1</v>
+      </c>
+      <c r="CI3" s="56">
+        <v>2</v>
+      </c>
+      <c r="CJ3" s="56">
+        <v>1</v>
+      </c>
+      <c r="CK3" s="56">
+        <v>3</v>
+      </c>
+      <c r="CL3" s="56">
+        <v>1</v>
+      </c>
+      <c r="CM3" s="56">
+        <v>1</v>
+      </c>
+      <c r="CN3" s="56">
+        <v>1</v>
+      </c>
+      <c r="CO3" s="56">
+        <v>1</v>
+      </c>
+      <c r="CP3" s="56">
+        <v>1</v>
+      </c>
+      <c r="CQ3" s="56">
+        <v>1</v>
+      </c>
+      <c r="CR3" s="56">
+        <v>1</v>
+      </c>
+      <c r="CS3" s="56">
+        <v>1</v>
+      </c>
+      <c r="CT3" s="56">
         <v>6</v>
       </c>
-      <c r="CU3" s="1">
+      <c r="CU3" s="56">
         <v>6</v>
       </c>
-      <c r="CV3" s="1">
+      <c r="CV3" s="56">
         <v>9</v>
       </c>
-      <c r="CW3" s="1">
+      <c r="CW3" s="56">
         <v>9</v>
       </c>
-      <c r="CX3" s="1">
-        <v>1</v>
-      </c>
-      <c r="CY3" s="2"/>
-      <c r="CZ3" s="2"/>
-      <c r="DA3" s="2"/>
-      <c r="DB3" s="2"/>
-      <c r="DC3" s="2"/>
-      <c r="DD3" s="1">
-        <v>1</v>
-      </c>
-      <c r="DE3" s="2"/>
-      <c r="DF3" s="2"/>
-      <c r="DG3" s="2"/>
-      <c r="DH3" s="2"/>
-      <c r="DI3" s="2"/>
-      <c r="DJ3" s="1">
+      <c r="CX3" s="56">
+        <v>1</v>
+      </c>
+      <c r="CY3" s="57"/>
+      <c r="CZ3" s="57"/>
+      <c r="DA3" s="57"/>
+      <c r="DB3" s="57"/>
+      <c r="DC3" s="57"/>
+      <c r="DD3" s="56">
+        <v>1</v>
+      </c>
+      <c r="DE3" s="57"/>
+      <c r="DF3" s="57"/>
+      <c r="DG3" s="57"/>
+      <c r="DH3" s="57"/>
+      <c r="DI3" s="57"/>
+      <c r="DJ3" s="56">
         <v>0</v>
       </c>
-      <c r="DK3" s="1">
-        <v>4</v>
-      </c>
-      <c r="DL3" s="1">
-        <v>2</v>
-      </c>
-      <c r="DM3" s="1">
+      <c r="DK3" s="56">
+        <v>4</v>
+      </c>
+      <c r="DL3" s="56">
+        <v>2</v>
+      </c>
+      <c r="DM3" s="56">
         <v>6</v>
       </c>
-      <c r="DN3" s="1">
-        <v>4</v>
-      </c>
-      <c r="DO3" s="1">
-        <v>1</v>
-      </c>
-      <c r="DP3" s="1">
-        <v>1</v>
-      </c>
-      <c r="DQ3" s="1">
-        <v>1</v>
-      </c>
-      <c r="DR3" s="1">
+      <c r="DN3" s="56">
+        <v>4</v>
+      </c>
+      <c r="DO3" s="56">
+        <v>1</v>
+      </c>
+      <c r="DP3" s="56">
+        <v>1</v>
+      </c>
+      <c r="DQ3" s="56">
+        <v>1</v>
+      </c>
+      <c r="DR3" s="56">
         <v>30</v>
       </c>
-      <c r="DS3" s="1">
-        <v>1</v>
-      </c>
-      <c r="DT3" s="1">
-        <v>1</v>
-      </c>
-      <c r="DU3" s="1">
-        <v>1</v>
-      </c>
-      <c r="DV3" s="1">
+      <c r="DS3" s="56">
+        <v>1</v>
+      </c>
+      <c r="DT3" s="56">
+        <v>1</v>
+      </c>
+      <c r="DU3" s="56">
+        <v>1</v>
+      </c>
+      <c r="DV3" s="56">
         <v>59</v>
       </c>
-      <c r="DW3" s="1">
-        <v>1</v>
-      </c>
-      <c r="DX3" s="1">
-        <v>1</v>
-      </c>
-      <c r="DY3" s="1">
-        <v>1</v>
-      </c>
-      <c r="DZ3" s="1">
+      <c r="DW3" s="56">
+        <v>1</v>
+      </c>
+      <c r="DX3" s="56">
+        <v>1</v>
+      </c>
+      <c r="DY3" s="56">
+        <v>1</v>
+      </c>
+      <c r="DZ3" s="56">
         <v>20</v>
       </c>
-      <c r="EA3" s="1">
-        <v>1</v>
-      </c>
-      <c r="EB3" s="1">
-        <v>1</v>
-      </c>
-      <c r="EC3" s="1">
-        <v>1</v>
-      </c>
-      <c r="ED3" s="1">
+      <c r="EA3" s="56">
+        <v>1</v>
+      </c>
+      <c r="EB3" s="56">
+        <v>1</v>
+      </c>
+      <c r="EC3" s="56">
+        <v>1</v>
+      </c>
+      <c r="ED3" s="56">
         <v>30</v>
       </c>
-      <c r="EE3" s="1">
-        <v>1</v>
-      </c>
-      <c r="EF3" s="1">
-        <v>3</v>
-      </c>
-      <c r="EG3" s="1">
-        <v>4</v>
-      </c>
-      <c r="EH3" s="1">
-        <v>3</v>
-      </c>
-      <c r="EI3" s="1">
-        <v>4</v>
-      </c>
-      <c r="EJ3" s="1">
-        <v>4</v>
-      </c>
-      <c r="EK3" s="1">
-        <v>2</v>
-      </c>
-      <c r="EL3" s="1">
-        <v>4</v>
-      </c>
-      <c r="EM3" s="1">
-        <v>2</v>
-      </c>
-      <c r="EN3" s="1">
-        <v>3</v>
-      </c>
-      <c r="EO3" s="1">
-        <v>4</v>
-      </c>
-      <c r="EP3" s="1">
-        <v>3</v>
-      </c>
-      <c r="EQ3" s="1">
-        <v>3</v>
-      </c>
-      <c r="ER3" s="1">
-        <v>1</v>
-      </c>
-      <c r="ES3" s="1">
-        <v>5</v>
-      </c>
-      <c r="ET3" s="1">
-        <v>4</v>
-      </c>
-      <c r="EU3" s="1">
-        <v>4</v>
-      </c>
-      <c r="EV3" s="1">
-        <v>4</v>
-      </c>
-      <c r="EW3" s="1">
-        <v>3</v>
-      </c>
-      <c r="EX3" s="1">
-        <v>4</v>
-      </c>
-      <c r="EY3" s="1">
-        <v>3</v>
-      </c>
-      <c r="EZ3" s="1">
-        <v>2</v>
-      </c>
-      <c r="FA3" s="1">
-        <v>2</v>
-      </c>
-      <c r="FB3" s="1">
-        <v>4</v>
-      </c>
-      <c r="FC3" s="1">
+      <c r="EE3" s="56">
+        <v>1</v>
+      </c>
+      <c r="EF3" s="56">
+        <v>3</v>
+      </c>
+      <c r="EG3" s="56">
+        <v>4</v>
+      </c>
+      <c r="EH3" s="56">
+        <v>3</v>
+      </c>
+      <c r="EI3" s="56">
+        <v>4</v>
+      </c>
+      <c r="EJ3" s="56">
+        <v>4</v>
+      </c>
+      <c r="EK3" s="56">
+        <v>2</v>
+      </c>
+      <c r="EL3" s="56">
+        <v>4</v>
+      </c>
+      <c r="EM3" s="56">
+        <v>2</v>
+      </c>
+      <c r="EN3" s="56">
+        <v>3</v>
+      </c>
+      <c r="EO3" s="56">
+        <v>4</v>
+      </c>
+      <c r="EP3" s="56">
+        <v>3</v>
+      </c>
+      <c r="EQ3" s="56">
+        <v>3</v>
+      </c>
+      <c r="ER3" s="56">
+        <v>1</v>
+      </c>
+      <c r="ES3" s="56">
+        <v>5</v>
+      </c>
+      <c r="ET3" s="56">
+        <v>4</v>
+      </c>
+      <c r="EU3" s="56">
+        <v>4</v>
+      </c>
+      <c r="EV3" s="56">
+        <v>4</v>
+      </c>
+      <c r="EW3" s="56">
+        <v>3</v>
+      </c>
+      <c r="EX3" s="56">
+        <v>4</v>
+      </c>
+      <c r="EY3" s="56">
+        <v>3</v>
+      </c>
+      <c r="EZ3" s="56">
+        <v>2</v>
+      </c>
+      <c r="FA3" s="56">
+        <v>2</v>
+      </c>
+      <c r="FB3" s="56">
+        <v>4</v>
+      </c>
+      <c r="FC3" s="56">
         <v>7</v>
       </c>
-      <c r="FD3" s="1">
-        <v>3</v>
-      </c>
-      <c r="FE3" s="1">
+      <c r="FD3" s="56">
+        <v>3</v>
+      </c>
+      <c r="FE3" s="56">
         <v>6</v>
       </c>
-      <c r="FF3" s="1">
-        <v>3</v>
-      </c>
-      <c r="FG3" s="1">
+      <c r="FF3" s="56">
+        <v>3</v>
+      </c>
+      <c r="FG3" s="56">
         <v>7</v>
       </c>
-      <c r="FH3" s="1">
+      <c r="FH3" s="56">
         <v>6</v>
       </c>
-      <c r="FI3" s="1">
-        <v>5</v>
-      </c>
-      <c r="FJ3" s="1">
-        <v>5</v>
-      </c>
-      <c r="FK3" s="1">
-        <v>4</v>
-      </c>
-      <c r="FL3" s="1">
-        <v>4</v>
-      </c>
-      <c r="FM3" s="1">
-        <v>2</v>
-      </c>
-      <c r="FN3" s="1">
-        <v>2</v>
-      </c>
-      <c r="FO3" s="1">
-        <v>1</v>
-      </c>
-      <c r="FP3" s="1">
-        <v>3</v>
-      </c>
-      <c r="FQ3" s="1">
-        <v>3</v>
-      </c>
-      <c r="FR3" s="1">
-        <v>4</v>
-      </c>
-      <c r="FS3" s="1">
-        <v>3</v>
-      </c>
-      <c r="FT3" s="1">
-        <v>3</v>
-      </c>
-      <c r="FU3" s="1">
-        <v>5</v>
-      </c>
-      <c r="FV3" s="1">
-        <v>3</v>
-      </c>
-      <c r="FW3" s="1">
-        <v>4</v>
-      </c>
-      <c r="FX3" s="1">
-        <v>3</v>
-      </c>
-      <c r="FY3" s="1">
-        <v>4</v>
-      </c>
-      <c r="FZ3" s="1">
-        <v>1</v>
-      </c>
-      <c r="GA3" s="1">
-        <v>4</v>
-      </c>
-      <c r="GB3" s="1">
-        <v>2</v>
-      </c>
-      <c r="GC3" s="1">
-        <v>3</v>
-      </c>
-      <c r="GD3" s="1">
-        <v>4</v>
-      </c>
-      <c r="GE3" s="1">
-        <v>4</v>
-      </c>
-      <c r="GF3" s="1">
-        <v>4</v>
-      </c>
-      <c r="GG3" s="1">
-        <v>1</v>
-      </c>
-      <c r="GH3" s="1">
-        <v>2</v>
-      </c>
-      <c r="GI3" s="1">
-        <v>3</v>
-      </c>
-      <c r="GJ3" s="1">
-        <v>3</v>
-      </c>
-      <c r="GK3" s="1">
-        <v>4</v>
-      </c>
-      <c r="GL3" s="1">
-        <v>4</v>
-      </c>
-      <c r="GM3" s="1">
-        <v>2</v>
-      </c>
-      <c r="GN3" s="1">
-        <v>3</v>
-      </c>
-      <c r="GO3" s="1">
-        <v>4</v>
-      </c>
-      <c r="GP3" s="1">
-        <v>4</v>
-      </c>
-      <c r="GQ3" s="1">
-        <v>3</v>
-      </c>
-      <c r="GR3" s="1">
-        <v>2</v>
-      </c>
-      <c r="GS3" s="1">
-        <v>3</v>
-      </c>
-      <c r="GT3" s="1">
-        <v>3</v>
-      </c>
-      <c r="GU3" s="1">
-        <v>3</v>
-      </c>
-      <c r="GV3" s="1">
-        <v>4</v>
-      </c>
-      <c r="GW3" s="1">
-        <v>2</v>
-      </c>
-      <c r="GX3" s="1">
-        <v>3</v>
-      </c>
-      <c r="GY3" s="1">
-        <v>2</v>
-      </c>
-      <c r="GZ3" s="1">
-        <v>1</v>
-      </c>
-      <c r="HA3" s="1">
-        <v>4</v>
-      </c>
-      <c r="HB3" s="1">
-        <v>3</v>
-      </c>
-      <c r="HC3" s="1">
-        <v>2</v>
-      </c>
-      <c r="HD3" s="1">
-        <v>3</v>
-      </c>
-      <c r="HE3" s="1">
-        <v>2</v>
-      </c>
-      <c r="HF3" s="1">
-        <v>3</v>
-      </c>
-      <c r="HG3" s="1">
-        <v>3</v>
-      </c>
-      <c r="HH3" s="1">
-        <v>3</v>
-      </c>
-      <c r="HI3" s="1">
-        <v>4</v>
-      </c>
-      <c r="HJ3" s="1">
-        <v>3</v>
-      </c>
-      <c r="HK3" s="1">
-        <v>2</v>
-      </c>
-      <c r="HL3" s="1">
-        <v>3</v>
-      </c>
-      <c r="HM3" s="1">
+      <c r="FI3" s="56">
+        <v>5</v>
+      </c>
+      <c r="FJ3" s="56">
+        <v>5</v>
+      </c>
+      <c r="FK3" s="56">
+        <v>4</v>
+      </c>
+      <c r="FL3" s="56">
+        <v>4</v>
+      </c>
+      <c r="FM3" s="56">
+        <v>2</v>
+      </c>
+      <c r="FN3" s="56">
+        <v>2</v>
+      </c>
+      <c r="FO3" s="56">
+        <v>1</v>
+      </c>
+      <c r="FP3" s="56">
+        <v>3</v>
+      </c>
+      <c r="FQ3" s="56">
+        <v>3</v>
+      </c>
+      <c r="FR3" s="56">
+        <v>4</v>
+      </c>
+      <c r="FS3" s="56">
+        <v>3</v>
+      </c>
+      <c r="FT3" s="56">
+        <v>3</v>
+      </c>
+      <c r="FU3" s="56">
+        <v>5</v>
+      </c>
+      <c r="FV3" s="56">
+        <v>3</v>
+      </c>
+      <c r="FW3" s="56">
+        <v>4</v>
+      </c>
+      <c r="FX3" s="56">
+        <v>3</v>
+      </c>
+      <c r="FY3" s="56">
+        <v>4</v>
+      </c>
+      <c r="FZ3" s="56">
+        <v>1</v>
+      </c>
+      <c r="GA3" s="56">
+        <v>4</v>
+      </c>
+      <c r="GB3" s="56">
+        <v>2</v>
+      </c>
+      <c r="GC3" s="56">
+        <v>3</v>
+      </c>
+      <c r="GD3" s="56">
+        <v>4</v>
+      </c>
+      <c r="GE3" s="56">
+        <v>4</v>
+      </c>
+      <c r="GF3" s="56">
+        <v>4</v>
+      </c>
+      <c r="GG3" s="56">
+        <v>1</v>
+      </c>
+      <c r="GH3" s="56">
+        <v>2</v>
+      </c>
+      <c r="GI3" s="56">
+        <v>3</v>
+      </c>
+      <c r="GJ3" s="56">
+        <v>3</v>
+      </c>
+      <c r="GK3" s="56">
+        <v>4</v>
+      </c>
+      <c r="GL3" s="56">
+        <v>4</v>
+      </c>
+      <c r="GM3" s="56">
+        <v>2</v>
+      </c>
+      <c r="GN3" s="56">
+        <v>3</v>
+      </c>
+      <c r="GO3" s="56">
+        <v>4</v>
+      </c>
+      <c r="GP3" s="56">
+        <v>4</v>
+      </c>
+      <c r="GQ3" s="56">
+        <v>3</v>
+      </c>
+      <c r="GR3" s="56">
+        <v>2</v>
+      </c>
+      <c r="GS3" s="56">
+        <v>3</v>
+      </c>
+      <c r="GT3" s="56">
+        <v>3</v>
+      </c>
+      <c r="GU3" s="56">
+        <v>3</v>
+      </c>
+      <c r="GV3" s="56">
+        <v>4</v>
+      </c>
+      <c r="GW3" s="56">
+        <v>2</v>
+      </c>
+      <c r="GX3" s="56">
+        <v>3</v>
+      </c>
+      <c r="GY3" s="56">
+        <v>2</v>
+      </c>
+      <c r="GZ3" s="56">
+        <v>1</v>
+      </c>
+      <c r="HA3" s="56">
+        <v>4</v>
+      </c>
+      <c r="HB3" s="56">
+        <v>3</v>
+      </c>
+      <c r="HC3" s="56">
+        <v>2</v>
+      </c>
+      <c r="HD3" s="56">
+        <v>3</v>
+      </c>
+      <c r="HE3" s="56">
+        <v>2</v>
+      </c>
+      <c r="HF3" s="56">
+        <v>3</v>
+      </c>
+      <c r="HG3" s="56">
+        <v>3</v>
+      </c>
+      <c r="HH3" s="56">
+        <v>3</v>
+      </c>
+      <c r="HI3" s="56">
+        <v>4</v>
+      </c>
+      <c r="HJ3" s="56">
+        <v>3</v>
+      </c>
+      <c r="HK3" s="56">
+        <v>2</v>
+      </c>
+      <c r="HL3" s="56">
+        <v>3</v>
+      </c>
+      <c r="HM3" s="56">
         <v>663</v>
       </c>
-      <c r="HN3" s="1">
+      <c r="HN3" s="56">
         <v>39</v>
       </c>
-      <c r="HO3" s="1">
+      <c r="HO3" s="56">
         <v>49</v>
       </c>
-      <c r="HP3" s="1">
+      <c r="HP3" s="56">
         <v>36</v>
       </c>
-      <c r="HQ3" s="1">
+      <c r="HQ3" s="56">
         <v>273</v>
       </c>
-      <c r="HR3" s="1">
+      <c r="HR3" s="56">
         <v>338</v>
       </c>
-      <c r="HS3" s="1">
+      <c r="HS3" s="56">
         <v>159</v>
       </c>
-      <c r="HT3" s="1">
+      <c r="HT3" s="56">
         <v>262</v>
       </c>
-      <c r="HU3" s="1">
+      <c r="HU3" s="56">
         <v>254</v>
       </c>
-      <c r="HV3" s="1">
+      <c r="HV3" s="56">
         <v>87</v>
       </c>
-      <c r="HW3" s="1">
+      <c r="HW3" s="56">
         <v>32</v>
       </c>
-      <c r="HX3" s="1">
+      <c r="HX3" s="56">
         <v>36</v>
       </c>
-      <c r="HY3" s="1">
+      <c r="HY3" s="56">
         <v>73</v>
       </c>
-      <c r="HZ3" s="1">
+      <c r="HZ3" s="56">
         <v>133</v>
       </c>
-      <c r="IA3" s="1">
+      <c r="IA3" s="56">
         <v>104</v>
       </c>
-      <c r="IB3" s="1">
+      <c r="IB3" s="56">
         <v>2538</v>
       </c>
-      <c r="IC3" s="3"/>
-      <c r="ID3" s="3">
+      <c r="IC3" s="58"/>
+      <c r="ID3" s="58">
         <v>44473.747465278</v>
       </c>
-      <c r="IE3" s="1">
-        <v>1</v>
-      </c>
-      <c r="IF3" s="1">
+      <c r="IE3" s="56">
+        <v>1</v>
+      </c>
+      <c r="IF3" s="56">
         <v>0</v>
       </c>
-      <c r="IG3" s="1">
+      <c r="IG3" s="56">
         <v>15</v>
       </c>
-      <c r="IH3" s="1">
+      <c r="IH3" s="56">
         <v>15</v>
       </c>
-      <c r="II3" s="1">
-        <v>2</v>
-      </c>
-      <c r="IJ3" s="1">
-        <v>1</v>
-      </c>
-      <c r="IK3" s="4">
+      <c r="II3" s="56">
+        <v>2</v>
+      </c>
+      <c r="IJ3" s="56">
+        <v>1</v>
+      </c>
+      <c r="IK3" s="59">
         <v>0.62</v>
       </c>
-      <c r="IL3" s="1">
+      <c r="IL3" s="56">
         <v>2</v>
       </c>
     </row>
@@ -9030,13 +9046,13 @@
         <v>2</v>
       </c>
       <c r="AA10" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC10" s="2" t="s">
         <v>726</v>
-      </c>
-      <c r="AB10" s="1">
-        <v>2</v>
-      </c>
-      <c r="AC10" s="2" t="s">
-        <v>727</v>
       </c>
       <c r="AD10" s="1">
         <v>2</v>
@@ -9117,7 +9133,7 @@
         <v>1</v>
       </c>
       <c r="BD10" s="2" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="BE10" s="1">
         <v>2</v>
@@ -9144,7 +9160,7 @@
         <v>1</v>
       </c>
       <c r="BM10" s="2" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="BN10" s="1">
         <v>1</v>
@@ -16377,7 +16393,7 @@
         <v>3</v>
       </c>
       <c r="H21" s="42" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="I21" s="41">
         <v>3</v>
@@ -78285,7 +78301,7 @@
         <v>3</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>725</v>
+        <v>668</v>
       </c>
       <c r="I113" s="1">
         <v>2</v>
